--- a/biology/Médecine/Karl_von_Vierordt/Karl_von_Vierordt.xlsx
+++ b/biology/Médecine/Karl_von_Vierordt/Karl_von_Vierordt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl von Vierordt (1er juillet 1818, Lahr/Schwarzwald – 22 novembre 1884, Tübingen) était un médecin badois. Il est connu pour ses études portant sur le système sanguin. 
 On lui doit d'avoir mis au point, en 1852, une technique de comptage des globules rouges utilisée pour le diagnostic de l'anémie.
